--- a/security.xlsx
+++ b/security.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>9.65-300</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,14 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>亚太国际</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26.888+500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4.62+500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -54,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>24.3+300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9.82-500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>25.05-300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4.94-500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>23.48-500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>25.11+100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,14 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>福</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.31+500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9.46-200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,10 +126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11.08+200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9.90+500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,10 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11.41-300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9.73+400</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,6 +151,38 @@
   </si>
   <si>
     <t>10.34+500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.10-500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海特高新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.26+1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.19+500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皖天然气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.38+1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.86-500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.39-500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -546,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I9"/>
+  <dimension ref="B2:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -559,7 +555,7 @@
     <col min="4" max="5" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -567,25 +563,25 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -593,117 +589,114 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="E4" t="s">
         <v>37</v>
       </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
         <v>20</v>
       </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" t="s">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
         <v>35</v>
       </c>
-      <c r="I6" t="s">
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="1"/>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/security.xlsx
+++ b/security.xlsx
@@ -16,20 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
-  <si>
-    <t>9.65-300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>4.79-800</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>恒宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>京运通</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -38,18 +30,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9.09+500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4.76-500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9.82-500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7.54+500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9.38+200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7.43+500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9.46-200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>25.66-200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,10 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9.31+500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4.83-1000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,10 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10.35-500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>方正电机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,6 +151,54 @@
   </si>
   <si>
     <t>7.39-500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.48-500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤凰传媒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.39+500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>众星菌业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.64+400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.83+1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.73-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.89-400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhongyida</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111.11-500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.82+1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.73+500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -213,12 +229,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -233,9 +255,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -542,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J9"/>
+  <dimension ref="B3:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -555,147 +578,163 @@
     <col min="4" max="5" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="s">
+      <c r="D7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="9" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
         <v>37</v>
       </c>
-      <c r="F4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>39</v>
       </c>
-      <c r="D9" t="s">
-        <v>40</v>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
